--- a/results/AiZen_Predicted_value.xlsx
+++ b/results/AiZen_Predicted_value.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,25 +437,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SeniorCitizen</t>
+          <t>RDPI</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>tenure</t>
+          <t>Wing Inventory</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gender_Female</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gender_Male</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Predicted Value</t>
         </is>
@@ -466,21 +456,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5</v>
+        <v>-1.435392011183372</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4036972985149274</v>
+        <v>-0.7296018546554647</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.816496580927726</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.816496580927726</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1.387589280371085</v>
       </c>
     </row>
     <row r="3">
@@ -488,21 +470,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5</v>
+        <v>-0.2897061221656142</v>
       </c>
       <c r="C3" t="n">
-        <v>1.296080800495293</v>
+        <v>-0.97441868789861</v>
       </c>
       <c r="D3" t="n">
-        <v>1.224744871391589</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.224744871391589</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1.507258131863395</v>
       </c>
     </row>
     <row r="4">
@@ -510,21 +484,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5</v>
+        <v>0.3356912209220609</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8640538669968622</v>
+        <v>-1.044239176963798</v>
       </c>
       <c r="D4" t="n">
-        <v>1.224744871391589</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1.224744871391589</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+        <v>1.570426838551101</v>
       </c>
     </row>
     <row r="5">
@@ -532,21 +498,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1.029409282162171</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.111938173102519</v>
+        <v>-0.6609259637716732</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.816496580927726</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.816496580927726</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+        <v>1.624936567844852</v>
       </c>
     </row>
     <row r="6">
@@ -554,21 +512,55 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5</v>
+        <v>1.087219120598847</v>
       </c>
       <c r="C6" t="n">
-        <v>1.083608538119016</v>
+        <v>-0.03991786157620376</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.816496580927726</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.816496580927726</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>1.609586492503433</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.145028959035523</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4710816376294887</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.597951373404737</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4683910773335214</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.080898113162414</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.420476183806297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.403859372036094</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.897123794073847</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.301951669059279</v>
       </c>
     </row>
   </sheetData>
